--- a/Code/Results/Cases/Case_5_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_161/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002275090378009</v>
+        <v>1.033294655339615</v>
       </c>
       <c r="D2">
-        <v>1.020942977978245</v>
+        <v>1.036824891749647</v>
       </c>
       <c r="E2">
-        <v>1.016755007677071</v>
+        <v>1.041934602809719</v>
       </c>
       <c r="F2">
-        <v>1.023869064997379</v>
+        <v>1.051219653389859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048111622794175</v>
+        <v>1.035685900914938</v>
       </c>
       <c r="J2">
-        <v>1.024387966168013</v>
+        <v>1.038420169120667</v>
       </c>
       <c r="K2">
-        <v>1.032118055031175</v>
+        <v>1.039617527563401</v>
       </c>
       <c r="L2">
-        <v>1.027985751208624</v>
+        <v>1.044712713289482</v>
       </c>
       <c r="M2">
-        <v>1.0350055872786</v>
+        <v>1.053971761247083</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007101859648872</v>
+        <v>1.034304253336271</v>
       </c>
       <c r="D3">
-        <v>1.024561637948738</v>
+        <v>1.037583992375746</v>
       </c>
       <c r="E3">
-        <v>1.020832153879584</v>
+        <v>1.04283920727192</v>
       </c>
       <c r="F3">
-        <v>1.028404440751888</v>
+        <v>1.052228572741494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049571400710282</v>
+        <v>1.035899657571543</v>
       </c>
       <c r="J3">
-        <v>1.027400775461267</v>
+        <v>1.039072115948</v>
       </c>
       <c r="K3">
-        <v>1.034889604966478</v>
+        <v>1.040186443568828</v>
       </c>
       <c r="L3">
-        <v>1.031205245389841</v>
+        <v>1.045427800484763</v>
       </c>
       <c r="M3">
-        <v>1.038686336741313</v>
+        <v>1.054792778118291</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010157380420488</v>
+        <v>1.034957677437219</v>
       </c>
       <c r="D4">
-        <v>1.02685223863477</v>
+        <v>1.038074878476642</v>
       </c>
       <c r="E4">
-        <v>1.02341903547897</v>
+        <v>1.043425045519666</v>
       </c>
       <c r="F4">
-        <v>1.031281307377242</v>
+        <v>1.052881932182079</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050480990208143</v>
+        <v>1.036036196961772</v>
       </c>
       <c r="J4">
-        <v>1.029304780451825</v>
+        <v>1.039493533436225</v>
       </c>
       <c r="K4">
-        <v>1.036637032620986</v>
+        <v>1.040553607319117</v>
       </c>
       <c r="L4">
-        <v>1.03324279668973</v>
+        <v>1.045890376928188</v>
       </c>
       <c r="M4">
-        <v>1.041016302787555</v>
+        <v>1.055323940730804</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011426315573682</v>
+        <v>1.035232411664516</v>
       </c>
       <c r="D5">
-        <v>1.027803409795432</v>
+        <v>1.038281173467869</v>
       </c>
       <c r="E5">
-        <v>1.024494717930943</v>
+        <v>1.043671450427633</v>
       </c>
       <c r="F5">
-        <v>1.032477399955519</v>
+        <v>1.053156728420252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050855201260821</v>
+        <v>1.036093172543156</v>
       </c>
       <c r="J5">
-        <v>1.030094689768333</v>
+        <v>1.039670592407831</v>
       </c>
       <c r="K5">
-        <v>1.037360977310263</v>
+        <v>1.040707731653062</v>
       </c>
       <c r="L5">
-        <v>1.034088814202798</v>
+        <v>1.046084811579949</v>
       </c>
       <c r="M5">
-        <v>1.041983855135099</v>
+        <v>1.055547219133921</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011638477278668</v>
+        <v>1.035278542775973</v>
       </c>
       <c r="D6">
-        <v>1.027962434821175</v>
+        <v>1.038315806962615</v>
       </c>
       <c r="E6">
-        <v>1.024674647660163</v>
+        <v>1.043712829819853</v>
       </c>
       <c r="F6">
-        <v>1.032677460862054</v>
+        <v>1.053202875160731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050917558709931</v>
+        <v>1.036102714022394</v>
       </c>
       <c r="J6">
-        <v>1.03022671123638</v>
+        <v>1.039700315216076</v>
       </c>
       <c r="K6">
-        <v>1.037481914061535</v>
+        <v>1.040733596220351</v>
       </c>
       <c r="L6">
-        <v>1.034230254776449</v>
+        <v>1.046117456088338</v>
       </c>
       <c r="M6">
-        <v>1.042145621513425</v>
+        <v>1.055584707226854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010174396534301</v>
+        <v>1.034961348313403</v>
       </c>
       <c r="D7">
-        <v>1.026864994081785</v>
+        <v>1.03807763529064</v>
       </c>
       <c r="E7">
-        <v>1.023433454767561</v>
+        <v>1.043428337529552</v>
       </c>
       <c r="F7">
-        <v>1.031297341405315</v>
+        <v>1.052885603536961</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050486022326931</v>
+        <v>1.036036959945184</v>
       </c>
       <c r="J7">
-        <v>1.02931537619555</v>
+        <v>1.039495899720013</v>
       </c>
       <c r="K7">
-        <v>1.03664674752605</v>
+        <v>1.040555667645873</v>
       </c>
       <c r="L7">
-        <v>1.033254142275291</v>
+        <v>1.045892975102045</v>
       </c>
       <c r="M7">
-        <v>1.041029277747638</v>
+        <v>1.055326924276577</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003920717904485</v>
+        <v>1.033635823107661</v>
       </c>
       <c r="D8">
-        <v>1.022176705622299</v>
+        <v>1.037081495424321</v>
       </c>
       <c r="E8">
-        <v>1.01814379349734</v>
+        <v>1.042240214345178</v>
       </c>
       <c r="F8">
-        <v>1.025414099676061</v>
+        <v>1.051560513997912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048612326222587</v>
+        <v>1.035758508281486</v>
       </c>
       <c r="J8">
-        <v>1.025415796575601</v>
+        <v>1.038640587439674</v>
       </c>
       <c r="K8">
-        <v>1.033064430056734</v>
+        <v>1.039809994311426</v>
       </c>
       <c r="L8">
-        <v>1.029083478643765</v>
+        <v>1.044954407432876</v>
       </c>
       <c r="M8">
-        <v>1.036260482379236</v>
+        <v>1.054249245961323</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9923532273602598</v>
+        <v>1.031301218172145</v>
       </c>
       <c r="D9">
-        <v>1.013506701660429</v>
+        <v>1.035323896465382</v>
       </c>
       <c r="E9">
-        <v>1.008408813932943</v>
+        <v>1.040150446937716</v>
       </c>
       <c r="F9">
-        <v>1.01458028585743</v>
+        <v>1.049229564847008</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045033351003841</v>
+        <v>1.035254266023179</v>
       </c>
       <c r="J9">
-        <v>1.018178932979914</v>
+        <v>1.037130108468288</v>
       </c>
       <c r="K9">
-        <v>1.026384378066918</v>
+        <v>1.038488681358278</v>
       </c>
       <c r="L9">
-        <v>1.02136692144191</v>
+        <v>1.043299544603147</v>
       </c>
       <c r="M9">
-        <v>1.027441155718299</v>
+        <v>1.052349581557568</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9842297735977327</v>
+        <v>1.029745600612786</v>
       </c>
       <c r="D10">
-        <v>1.00742399697946</v>
+        <v>1.034150695081352</v>
       </c>
       <c r="E10">
-        <v>1.001609166194647</v>
+        <v>1.038759911861914</v>
       </c>
       <c r="F10">
-        <v>1.007008142467174</v>
+        <v>1.047678353890882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042446915911159</v>
+        <v>1.034909007555213</v>
       </c>
       <c r="J10">
-        <v>1.013083362551624</v>
+        <v>1.036120932756471</v>
       </c>
       <c r="K10">
-        <v>1.02166049025075</v>
+        <v>1.037602914042396</v>
       </c>
       <c r="L10">
-        <v>1.015949427304124</v>
+        <v>1.04219567849138</v>
       </c>
       <c r="M10">
-        <v>1.02125200519926</v>
+        <v>1.051082739500519</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9806039002162011</v>
+        <v>1.029072190603018</v>
       </c>
       <c r="D11">
-        <v>1.00471150954851</v>
+        <v>1.033642349577978</v>
       </c>
       <c r="E11">
-        <v>0.9985837555032027</v>
+        <v>1.038158431636238</v>
       </c>
       <c r="F11">
-        <v>1.003637686132644</v>
+        <v>1.047007325114527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041275985662487</v>
+        <v>1.034757355115199</v>
       </c>
       <c r="J11">
-        <v>1.010806449284249</v>
+        <v>1.03568343605213</v>
       </c>
       <c r="K11">
-        <v>1.019545117329226</v>
+        <v>1.037218215397651</v>
       </c>
       <c r="L11">
-        <v>1.013532429633935</v>
+        <v>1.041717551926516</v>
       </c>
       <c r="M11">
-        <v>1.018491325538719</v>
+        <v>1.050534096663097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9792398190815231</v>
+        <v>1.028822083737022</v>
       </c>
       <c r="D12">
-        <v>1.003691526303912</v>
+        <v>1.033453477009693</v>
       </c>
       <c r="E12">
-        <v>0.9974470891419496</v>
+        <v>1.037935110577588</v>
       </c>
       <c r="F12">
-        <v>1.002371169887971</v>
+        <v>1.046758174340673</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040833071372677</v>
+        <v>1.034700701567713</v>
       </c>
       <c r="J12">
-        <v>1.009949536166359</v>
+        <v>1.03552085311438</v>
       </c>
       <c r="K12">
-        <v>1.018748342592361</v>
+        <v>1.037075148213442</v>
       </c>
       <c r="L12">
-        <v>1.012623362876947</v>
+        <v>1.041539933163564</v>
       </c>
       <c r="M12">
-        <v>1.017453082585152</v>
+        <v>1.05033029308631</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9795332173792969</v>
+        <v>1.028875731257591</v>
       </c>
       <c r="D13">
-        <v>1.003910889960151</v>
+        <v>1.033493993083672</v>
       </c>
       <c r="E13">
-        <v>0.9976915033569712</v>
+        <v>1.037983009370447</v>
       </c>
       <c r="F13">
-        <v>1.002643515257228</v>
+        <v>1.046811613528178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040928444423396</v>
+        <v>1.034712868559228</v>
       </c>
       <c r="J13">
-        <v>1.010133861940908</v>
+        <v>1.035555731191321</v>
       </c>
       <c r="K13">
-        <v>1.018919761602361</v>
+        <v>1.037105844427703</v>
       </c>
       <c r="L13">
-        <v>1.012818881491596</v>
+        <v>1.04157803394471</v>
       </c>
       <c r="M13">
-        <v>1.017676379992896</v>
+        <v>1.050374010232967</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9804915031512299</v>
+        <v>1.029051516127633</v>
       </c>
       <c r="D14">
-        <v>1.004627455094388</v>
+        <v>1.033626738335806</v>
       </c>
       <c r="E14">
-        <v>0.99849006561916</v>
+        <v>1.038139969895916</v>
       </c>
       <c r="F14">
-        <v>1.003533297784331</v>
+        <v>1.046986728206532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041239538918797</v>
+        <v>1.034752678703574</v>
       </c>
       <c r="J14">
-        <v>1.010735847842903</v>
+        <v>1.035669998467472</v>
       </c>
       <c r="K14">
-        <v>1.019479483915537</v>
+        <v>1.037206392944664</v>
       </c>
       <c r="L14">
-        <v>1.013457519704112</v>
+        <v>1.041702870334827</v>
       </c>
       <c r="M14">
-        <v>1.018405769318417</v>
+        <v>1.05051725046163</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9810796152426012</v>
+        <v>1.029159826648913</v>
       </c>
       <c r="D15">
-        <v>1.005067285834816</v>
+        <v>1.033708520413284</v>
       </c>
       <c r="E15">
-        <v>0.9989803555458768</v>
+        <v>1.038236691129626</v>
       </c>
       <c r="F15">
-        <v>1.004079565197447</v>
+        <v>1.047094635303011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041430147319121</v>
+        <v>1.034777164248876</v>
       </c>
       <c r="J15">
-        <v>1.011105253672079</v>
+        <v>1.035740392094691</v>
       </c>
       <c r="K15">
-        <v>1.019822869065308</v>
+        <v>1.03726832130187</v>
       </c>
       <c r="L15">
-        <v>1.013849491814676</v>
+        <v>1.041779783353209</v>
       </c>
       <c r="M15">
-        <v>1.018853452538246</v>
+        <v>1.05060550376309</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9844680450140152</v>
+        <v>1.02979029647876</v>
       </c>
       <c r="D16">
-        <v>1.007602306309223</v>
+        <v>1.03418442517899</v>
       </c>
       <c r="E16">
-        <v>1.001808184510231</v>
+        <v>1.03879984347292</v>
       </c>
       <c r="F16">
-        <v>1.007229829725218</v>
+        <v>1.047722901734568</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042523525824444</v>
+        <v>1.034919026897879</v>
       </c>
       <c r="J16">
-        <v>1.013232940414289</v>
+        <v>1.036149957121586</v>
       </c>
       <c r="K16">
-        <v>1.021799363603853</v>
+        <v>1.037628420932184</v>
       </c>
       <c r="L16">
-        <v>1.016108286196562</v>
+        <v>1.042227407163879</v>
       </c>
       <c r="M16">
-        <v>1.021433465013485</v>
+        <v>1.051119149234757</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9865638302787979</v>
+        <v>1.03018582255723</v>
       </c>
       <c r="D17">
-        <v>1.009170973940396</v>
+        <v>1.03448285685791</v>
       </c>
       <c r="E17">
-        <v>1.003559806365039</v>
+        <v>1.039153263417019</v>
       </c>
       <c r="F17">
-        <v>1.009180814446085</v>
+        <v>1.048117172715619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043195505294053</v>
+        <v>1.035007437403656</v>
       </c>
       <c r="J17">
-        <v>1.014548315628511</v>
+        <v>1.036406728380757</v>
       </c>
       <c r="K17">
-        <v>1.023020091089482</v>
+        <v>1.037853992988705</v>
       </c>
       <c r="L17">
-        <v>1.017505705852828</v>
+        <v>1.04250815125806</v>
       </c>
       <c r="M17">
-        <v>1.023029763086138</v>
+        <v>1.051441321300345</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9877758815871213</v>
+        <v>1.030416543840744</v>
       </c>
       <c r="D18">
-        <v>1.010078408969509</v>
+        <v>1.034656893991253</v>
       </c>
       <c r="E18">
-        <v>1.004573721469867</v>
+        <v>1.039359468089573</v>
       </c>
       <c r="F18">
-        <v>1.010310003739177</v>
+        <v>1.048347207539535</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04358256282058</v>
+        <v>1.035058797970867</v>
       </c>
       <c r="J18">
-        <v>1.015308790790421</v>
+        <v>1.036556448800317</v>
       </c>
       <c r="K18">
-        <v>1.023725414430049</v>
+        <v>1.037985453816938</v>
       </c>
       <c r="L18">
-        <v>1.01831397079997</v>
+        <v>1.042671890486432</v>
       </c>
       <c r="M18">
-        <v>1.023953114938482</v>
+        <v>1.051629229911371</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9881874271364515</v>
+        <v>1.03049521681899</v>
       </c>
       <c r="D19">
-        <v>1.01038655995287</v>
+        <v>1.034716230528607</v>
       </c>
       <c r="E19">
-        <v>1.004918141943323</v>
+        <v>1.039429788844286</v>
       </c>
       <c r="F19">
-        <v>1.01069356118291</v>
+        <v>1.048425654174723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043713718144558</v>
+        <v>1.035076275340185</v>
       </c>
       <c r="J19">
-        <v>1.015566963140973</v>
+        <v>1.036607491113567</v>
       </c>
       <c r="K19">
-        <v>1.023964789385612</v>
+        <v>1.038030259624452</v>
       </c>
       <c r="L19">
-        <v>1.018588427634222</v>
+        <v>1.042727718931539</v>
       </c>
       <c r="M19">
-        <v>1.024266660559011</v>
+        <v>1.051693300363049</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9863400534091794</v>
+        <v>1.030143384529144</v>
       </c>
       <c r="D20">
-        <v>1.009003455288245</v>
+        <v>1.034450841371489</v>
       </c>
       <c r="E20">
-        <v>1.003372683197424</v>
+        <v>1.039115338507706</v>
       </c>
       <c r="F20">
-        <v>1.008972406776561</v>
+        <v>1.048074864625506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043123916973286</v>
+        <v>1.034997973282179</v>
       </c>
       <c r="J20">
-        <v>1.014407891647802</v>
+        <v>1.036379184413723</v>
       </c>
       <c r="K20">
-        <v>1.022889815953032</v>
+        <v>1.037829802773895</v>
       </c>
       <c r="L20">
-        <v>1.017356486155743</v>
+        <v>1.042478031523069</v>
       </c>
       <c r="M20">
-        <v>1.022859300890822</v>
+        <v>1.051406756203264</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9802097969603115</v>
+        <v>1.028999751101737</v>
       </c>
       <c r="D21">
-        <v>1.004416793355437</v>
+        <v>1.03358764955211</v>
       </c>
       <c r="E21">
-        <v>0.9982552708221809</v>
+        <v>1.038093746291779</v>
       </c>
       <c r="F21">
-        <v>1.00327168823351</v>
+        <v>1.04693515855489</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041148152273602</v>
+        <v>1.034740964523495</v>
       </c>
       <c r="J21">
-        <v>1.010558891075124</v>
+        <v>1.035636351729404</v>
       </c>
       <c r="K21">
-        <v>1.019314968611376</v>
+        <v>1.037176788682553</v>
       </c>
       <c r="L21">
-        <v>1.013269773195489</v>
+        <v>1.041666109712067</v>
       </c>
       <c r="M21">
-        <v>1.01819134145137</v>
+        <v>1.050475070143973</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9762549924944541</v>
+        <v>1.02828086310856</v>
       </c>
       <c r="D22">
-        <v>1.001460628689747</v>
+        <v>1.033044635356048</v>
       </c>
       <c r="E22">
-        <v>0.9949627593786241</v>
+        <v>1.037451983485711</v>
       </c>
       <c r="F22">
-        <v>0.9996026276023328</v>
+        <v>1.046219154330536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039859572680922</v>
+        <v>1.034577503887695</v>
       </c>
       <c r="J22">
-        <v>1.0080739503639</v>
+        <v>1.03516885702379</v>
       </c>
       <c r="K22">
-        <v>1.01700320566697</v>
+        <v>1.036765212311534</v>
       </c>
       <c r="L22">
-        <v>1.010634669839234</v>
+        <v>1.041155499466112</v>
       </c>
       <c r="M22">
-        <v>1.015181960629796</v>
+        <v>1.049889206073509</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9783613836712666</v>
+        <v>1.028661944043647</v>
       </c>
       <c r="D23">
-        <v>1.003034828373602</v>
+        <v>1.033332524762199</v>
       </c>
       <c r="E23">
-        <v>0.9967155405093868</v>
+        <v>1.037792141452256</v>
       </c>
       <c r="F23">
-        <v>1.001555988942877</v>
+        <v>1.046598667066876</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040547178216906</v>
+        <v>1.034664334485835</v>
       </c>
       <c r="J23">
-        <v>1.009397621833239</v>
+        <v>1.035416726956573</v>
       </c>
       <c r="K23">
-        <v>1.01823497982341</v>
+        <v>1.036983491359284</v>
       </c>
       <c r="L23">
-        <v>1.012038017790214</v>
+        <v>1.04142619507201</v>
       </c>
       <c r="M23">
-        <v>1.016784585865269</v>
+        <v>1.050199790711672</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9864412005636513</v>
+        <v>1.030162560392775</v>
       </c>
       <c r="D24">
-        <v>1.009079173018269</v>
+        <v>1.034465307893755</v>
       </c>
       <c r="E24">
-        <v>1.00345726008176</v>
+        <v>1.039132474953913</v>
       </c>
       <c r="F24">
-        <v>1.009066604327476</v>
+        <v>1.048093981634902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0431562797629</v>
+        <v>1.035002250353314</v>
       </c>
       <c r="J24">
-        <v>1.014471364051499</v>
+        <v>1.036391630501002</v>
       </c>
       <c r="K24">
-        <v>1.022948702365433</v>
+        <v>1.037840733635334</v>
       </c>
       <c r="L24">
-        <v>1.017423933165869</v>
+        <v>1.042491641378225</v>
       </c>
       <c r="M24">
-        <v>1.022936349294689</v>
+        <v>1.051422374710288</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9954129001352497</v>
+        <v>1.03190463243242</v>
       </c>
       <c r="D25">
-        <v>1.015799292006401</v>
+        <v>1.035778541144434</v>
       </c>
       <c r="E25">
-        <v>1.01097768882587</v>
+        <v>1.040690239645908</v>
       </c>
       <c r="F25">
-        <v>1.01743993438431</v>
+        <v>1.04983168889111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045992843731655</v>
+        <v>1.035386230317398</v>
       </c>
       <c r="J25">
-        <v>1.020095630803012</v>
+        <v>1.037520992019381</v>
       </c>
       <c r="K25">
-        <v>1.028157197037746</v>
+        <v>1.038831137868652</v>
       </c>
       <c r="L25">
-        <v>1.023407947394462</v>
+        <v>1.043727479190696</v>
       </c>
       <c r="M25">
-        <v>1.029773418544562</v>
+        <v>1.052840763820664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_161/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033294655339615</v>
+        <v>1.002275090378009</v>
       </c>
       <c r="D2">
-        <v>1.036824891749647</v>
+        <v>1.020942977978245</v>
       </c>
       <c r="E2">
-        <v>1.041934602809719</v>
+        <v>1.01675500767707</v>
       </c>
       <c r="F2">
-        <v>1.051219653389859</v>
+        <v>1.023869064997379</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035685900914938</v>
+        <v>1.048111622794175</v>
       </c>
       <c r="J2">
-        <v>1.038420169120667</v>
+        <v>1.024387966168012</v>
       </c>
       <c r="K2">
-        <v>1.039617527563401</v>
+        <v>1.032118055031175</v>
       </c>
       <c r="L2">
-        <v>1.044712713289482</v>
+        <v>1.027985751208624</v>
       </c>
       <c r="M2">
-        <v>1.053971761247083</v>
+        <v>1.0350055872786</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034304253336271</v>
+        <v>1.007101859648872</v>
       </c>
       <c r="D3">
-        <v>1.037583992375746</v>
+        <v>1.024561637948738</v>
       </c>
       <c r="E3">
-        <v>1.04283920727192</v>
+        <v>1.020832153879585</v>
       </c>
       <c r="F3">
-        <v>1.052228572741494</v>
+        <v>1.028404440751888</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035899657571543</v>
+        <v>1.049571400710282</v>
       </c>
       <c r="J3">
-        <v>1.039072115948</v>
+        <v>1.027400775461267</v>
       </c>
       <c r="K3">
-        <v>1.040186443568828</v>
+        <v>1.034889604966478</v>
       </c>
       <c r="L3">
-        <v>1.045427800484763</v>
+        <v>1.031205245389841</v>
       </c>
       <c r="M3">
-        <v>1.054792778118291</v>
+        <v>1.038686336741313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034957677437219</v>
+        <v>1.010157380420488</v>
       </c>
       <c r="D4">
-        <v>1.038074878476642</v>
+        <v>1.026852238634769</v>
       </c>
       <c r="E4">
-        <v>1.043425045519666</v>
+        <v>1.02341903547897</v>
       </c>
       <c r="F4">
-        <v>1.052881932182079</v>
+        <v>1.031281307377242</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036036196961772</v>
+        <v>1.050480990208143</v>
       </c>
       <c r="J4">
-        <v>1.039493533436225</v>
+        <v>1.029304780451824</v>
       </c>
       <c r="K4">
-        <v>1.040553607319117</v>
+        <v>1.036637032620985</v>
       </c>
       <c r="L4">
-        <v>1.045890376928188</v>
+        <v>1.033242796689729</v>
       </c>
       <c r="M4">
-        <v>1.055323940730804</v>
+        <v>1.041016302787554</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035232411664516</v>
+        <v>1.011426315573682</v>
       </c>
       <c r="D5">
-        <v>1.038281173467869</v>
+        <v>1.027803409795432</v>
       </c>
       <c r="E5">
-        <v>1.043671450427633</v>
+        <v>1.024494717930943</v>
       </c>
       <c r="F5">
-        <v>1.053156728420252</v>
+        <v>1.032477399955519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036093172543156</v>
+        <v>1.050855201260821</v>
       </c>
       <c r="J5">
-        <v>1.039670592407831</v>
+        <v>1.030094689768333</v>
       </c>
       <c r="K5">
-        <v>1.040707731653062</v>
+        <v>1.037360977310263</v>
       </c>
       <c r="L5">
-        <v>1.046084811579949</v>
+        <v>1.034088814202798</v>
       </c>
       <c r="M5">
-        <v>1.055547219133921</v>
+        <v>1.041983855135099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035278542775973</v>
+        <v>1.011638477278667</v>
       </c>
       <c r="D6">
-        <v>1.038315806962615</v>
+        <v>1.027962434821174</v>
       </c>
       <c r="E6">
-        <v>1.043712829819853</v>
+        <v>1.024674647660162</v>
       </c>
       <c r="F6">
-        <v>1.053202875160731</v>
+        <v>1.032677460862053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036102714022394</v>
+        <v>1.05091755870993</v>
       </c>
       <c r="J6">
-        <v>1.039700315216076</v>
+        <v>1.030226711236379</v>
       </c>
       <c r="K6">
-        <v>1.040733596220351</v>
+        <v>1.037481914061534</v>
       </c>
       <c r="L6">
-        <v>1.046117456088338</v>
+        <v>1.034230254776448</v>
       </c>
       <c r="M6">
-        <v>1.055584707226854</v>
+        <v>1.042145621513424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034961348313403</v>
+        <v>1.010174396534301</v>
       </c>
       <c r="D7">
-        <v>1.03807763529064</v>
+        <v>1.026864994081785</v>
       </c>
       <c r="E7">
-        <v>1.043428337529552</v>
+        <v>1.023433454767561</v>
       </c>
       <c r="F7">
-        <v>1.052885603536961</v>
+        <v>1.031297341405316</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036036959945184</v>
+        <v>1.050486022326931</v>
       </c>
       <c r="J7">
-        <v>1.039495899720013</v>
+        <v>1.02931537619555</v>
       </c>
       <c r="K7">
-        <v>1.040555667645873</v>
+        <v>1.036646747526051</v>
       </c>
       <c r="L7">
-        <v>1.045892975102045</v>
+        <v>1.033254142275291</v>
       </c>
       <c r="M7">
-        <v>1.055326924276577</v>
+        <v>1.041029277747639</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033635823107661</v>
+        <v>1.003920717904486</v>
       </c>
       <c r="D8">
-        <v>1.037081495424321</v>
+        <v>1.0221767056223</v>
       </c>
       <c r="E8">
-        <v>1.042240214345178</v>
+        <v>1.018143793497341</v>
       </c>
       <c r="F8">
-        <v>1.051560513997912</v>
+        <v>1.025414099676062</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035758508281486</v>
+        <v>1.048612326222588</v>
       </c>
       <c r="J8">
-        <v>1.038640587439674</v>
+        <v>1.025415796575602</v>
       </c>
       <c r="K8">
-        <v>1.039809994311426</v>
+        <v>1.033064430056734</v>
       </c>
       <c r="L8">
-        <v>1.044954407432876</v>
+        <v>1.029083478643766</v>
       </c>
       <c r="M8">
-        <v>1.054249245961323</v>
+        <v>1.036260482379237</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031301218172145</v>
+        <v>0.9923532273602601</v>
       </c>
       <c r="D9">
-        <v>1.035323896465382</v>
+        <v>1.013506701660429</v>
       </c>
       <c r="E9">
-        <v>1.040150446937716</v>
+        <v>1.008408813932942</v>
       </c>
       <c r="F9">
-        <v>1.049229564847008</v>
+        <v>1.01458028585743</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035254266023179</v>
+        <v>1.045033351003842</v>
       </c>
       <c r="J9">
-        <v>1.037130108468288</v>
+        <v>1.018178932979914</v>
       </c>
       <c r="K9">
-        <v>1.038488681358278</v>
+        <v>1.026384378066918</v>
       </c>
       <c r="L9">
-        <v>1.043299544603147</v>
+        <v>1.02136692144191</v>
       </c>
       <c r="M9">
-        <v>1.052349581557568</v>
+        <v>1.027441155718299</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029745600612786</v>
+        <v>0.9842297735977329</v>
       </c>
       <c r="D10">
-        <v>1.034150695081352</v>
+        <v>1.00742399697946</v>
       </c>
       <c r="E10">
-        <v>1.038759911861914</v>
+        <v>1.001609166194647</v>
       </c>
       <c r="F10">
-        <v>1.047678353890882</v>
+        <v>1.007008142467174</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034909007555213</v>
+        <v>1.042446915911159</v>
       </c>
       <c r="J10">
-        <v>1.036120932756471</v>
+        <v>1.013083362551624</v>
       </c>
       <c r="K10">
-        <v>1.037602914042396</v>
+        <v>1.021660490250751</v>
       </c>
       <c r="L10">
-        <v>1.04219567849138</v>
+        <v>1.015949427304125</v>
       </c>
       <c r="M10">
-        <v>1.051082739500519</v>
+        <v>1.02125200519926</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029072190603018</v>
+        <v>0.9806039002162018</v>
       </c>
       <c r="D11">
-        <v>1.033642349577978</v>
+        <v>1.00471150954851</v>
       </c>
       <c r="E11">
-        <v>1.038158431636238</v>
+        <v>0.9985837555032031</v>
       </c>
       <c r="F11">
-        <v>1.047007325114527</v>
+        <v>1.003637686132645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034757355115199</v>
+        <v>1.041275985662488</v>
       </c>
       <c r="J11">
-        <v>1.03568343605213</v>
+        <v>1.010806449284249</v>
       </c>
       <c r="K11">
-        <v>1.037218215397651</v>
+        <v>1.019545117329226</v>
       </c>
       <c r="L11">
-        <v>1.041717551926516</v>
+        <v>1.013532429633935</v>
       </c>
       <c r="M11">
-        <v>1.050534096663097</v>
+        <v>1.018491325538719</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028822083737022</v>
+        <v>0.9792398190815235</v>
       </c>
       <c r="D12">
-        <v>1.033453477009693</v>
+        <v>1.003691526303913</v>
       </c>
       <c r="E12">
-        <v>1.037935110577588</v>
+        <v>0.9974470891419501</v>
       </c>
       <c r="F12">
-        <v>1.046758174340673</v>
+        <v>1.002371169887972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034700701567713</v>
+        <v>1.040833071372677</v>
       </c>
       <c r="J12">
-        <v>1.03552085311438</v>
+        <v>1.00994953616636</v>
       </c>
       <c r="K12">
-        <v>1.037075148213442</v>
+        <v>1.018748342592361</v>
       </c>
       <c r="L12">
-        <v>1.041539933163564</v>
+        <v>1.012623362876947</v>
       </c>
       <c r="M12">
-        <v>1.05033029308631</v>
+        <v>1.017453082585152</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028875731257591</v>
+        <v>0.9795332173792959</v>
       </c>
       <c r="D13">
-        <v>1.033493993083672</v>
+        <v>1.003910889960149</v>
       </c>
       <c r="E13">
-        <v>1.037983009370447</v>
+        <v>0.9976915033569705</v>
       </c>
       <c r="F13">
-        <v>1.046811613528178</v>
+        <v>1.002643515257226</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034712868559228</v>
+        <v>1.040928444423395</v>
       </c>
       <c r="J13">
-        <v>1.035555731191321</v>
+        <v>1.010133861940907</v>
       </c>
       <c r="K13">
-        <v>1.037105844427703</v>
+        <v>1.01891976160236</v>
       </c>
       <c r="L13">
-        <v>1.04157803394471</v>
+        <v>1.012818881491595</v>
       </c>
       <c r="M13">
-        <v>1.050374010232967</v>
+        <v>1.017676379992895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029051516127633</v>
+        <v>0.9804915031512287</v>
       </c>
       <c r="D14">
-        <v>1.033626738335806</v>
+        <v>1.004627455094387</v>
       </c>
       <c r="E14">
-        <v>1.038139969895916</v>
+        <v>0.9984900656191583</v>
       </c>
       <c r="F14">
-        <v>1.046986728206532</v>
+        <v>1.003533297784329</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034752678703574</v>
+        <v>1.041239538918796</v>
       </c>
       <c r="J14">
-        <v>1.035669998467472</v>
+        <v>1.010735847842902</v>
       </c>
       <c r="K14">
-        <v>1.037206392944664</v>
+        <v>1.019479483915536</v>
       </c>
       <c r="L14">
-        <v>1.041702870334827</v>
+        <v>1.013457519704111</v>
       </c>
       <c r="M14">
-        <v>1.05051725046163</v>
+        <v>1.018405769318415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029159826648913</v>
+        <v>0.9810796152426018</v>
       </c>
       <c r="D15">
-        <v>1.033708520413284</v>
+        <v>1.005067285834816</v>
       </c>
       <c r="E15">
-        <v>1.038236691129626</v>
+        <v>0.9989803555458774</v>
       </c>
       <c r="F15">
-        <v>1.047094635303011</v>
+        <v>1.004079565197448</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034777164248876</v>
+        <v>1.041430147319121</v>
       </c>
       <c r="J15">
-        <v>1.035740392094691</v>
+        <v>1.011105253672079</v>
       </c>
       <c r="K15">
-        <v>1.03726832130187</v>
+        <v>1.019822869065308</v>
       </c>
       <c r="L15">
-        <v>1.041779783353209</v>
+        <v>1.013849491814677</v>
       </c>
       <c r="M15">
-        <v>1.05060550376309</v>
+        <v>1.018853452538247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02979029647876</v>
+        <v>0.9844680450140137</v>
       </c>
       <c r="D16">
-        <v>1.03418442517899</v>
+        <v>1.007602306309222</v>
       </c>
       <c r="E16">
-        <v>1.03879984347292</v>
+        <v>1.00180818451023</v>
       </c>
       <c r="F16">
-        <v>1.047722901734568</v>
+        <v>1.007229829725217</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034919026897879</v>
+        <v>1.042523525824443</v>
       </c>
       <c r="J16">
-        <v>1.036149957121586</v>
+        <v>1.013232940414288</v>
       </c>
       <c r="K16">
-        <v>1.037628420932184</v>
+        <v>1.021799363603852</v>
       </c>
       <c r="L16">
-        <v>1.042227407163879</v>
+        <v>1.016108286196562</v>
       </c>
       <c r="M16">
-        <v>1.051119149234757</v>
+        <v>1.021433465013484</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03018582255723</v>
+        <v>0.9865638302787991</v>
       </c>
       <c r="D17">
-        <v>1.03448285685791</v>
+        <v>1.009170973940397</v>
       </c>
       <c r="E17">
-        <v>1.039153263417019</v>
+        <v>1.00355980636504</v>
       </c>
       <c r="F17">
-        <v>1.048117172715619</v>
+        <v>1.009180814446086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035007437403656</v>
+        <v>1.043195505294053</v>
       </c>
       <c r="J17">
-        <v>1.036406728380757</v>
+        <v>1.014548315628512</v>
       </c>
       <c r="K17">
-        <v>1.037853992988705</v>
+        <v>1.023020091089483</v>
       </c>
       <c r="L17">
-        <v>1.04250815125806</v>
+        <v>1.017505705852829</v>
       </c>
       <c r="M17">
-        <v>1.051441321300345</v>
+        <v>1.023029763086138</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030416543840744</v>
+        <v>0.9877758815871219</v>
       </c>
       <c r="D18">
-        <v>1.034656893991253</v>
+        <v>1.01007840896951</v>
       </c>
       <c r="E18">
-        <v>1.039359468089573</v>
+        <v>1.004573721469868</v>
       </c>
       <c r="F18">
-        <v>1.048347207539535</v>
+        <v>1.010310003739177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035058797970867</v>
+        <v>1.04358256282058</v>
       </c>
       <c r="J18">
-        <v>1.036556448800317</v>
+        <v>1.015308790790421</v>
       </c>
       <c r="K18">
-        <v>1.037985453816938</v>
+        <v>1.02372541443005</v>
       </c>
       <c r="L18">
-        <v>1.042671890486432</v>
+        <v>1.018313970799971</v>
       </c>
       <c r="M18">
-        <v>1.051629229911371</v>
+        <v>1.023953114938483</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03049521681899</v>
+        <v>0.9881874271364502</v>
       </c>
       <c r="D19">
-        <v>1.034716230528607</v>
+        <v>1.010386559952869</v>
       </c>
       <c r="E19">
-        <v>1.039429788844286</v>
+        <v>1.004918141943322</v>
       </c>
       <c r="F19">
-        <v>1.048425654174723</v>
+        <v>1.010693561182909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035076275340185</v>
+        <v>1.043713718144557</v>
       </c>
       <c r="J19">
-        <v>1.036607491113567</v>
+        <v>1.015566963140972</v>
       </c>
       <c r="K19">
-        <v>1.038030259624452</v>
+        <v>1.023964789385611</v>
       </c>
       <c r="L19">
-        <v>1.042727718931539</v>
+        <v>1.018588427634221</v>
       </c>
       <c r="M19">
-        <v>1.051693300363049</v>
+        <v>1.02426666055901</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030143384529144</v>
+        <v>0.9863400534091782</v>
       </c>
       <c r="D20">
-        <v>1.034450841371489</v>
+        <v>1.009003455288243</v>
       </c>
       <c r="E20">
-        <v>1.039115338507706</v>
+        <v>1.003372683197423</v>
       </c>
       <c r="F20">
-        <v>1.048074864625506</v>
+        <v>1.00897240677656</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034997973282179</v>
+        <v>1.043123916973285</v>
       </c>
       <c r="J20">
-        <v>1.036379184413723</v>
+        <v>1.014407891647801</v>
       </c>
       <c r="K20">
-        <v>1.037829802773895</v>
+        <v>1.022889815953031</v>
       </c>
       <c r="L20">
-        <v>1.042478031523069</v>
+        <v>1.017356486155742</v>
       </c>
       <c r="M20">
-        <v>1.051406756203264</v>
+        <v>1.022859300890821</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028999751101737</v>
+        <v>0.9802097969603106</v>
       </c>
       <c r="D21">
-        <v>1.03358764955211</v>
+        <v>1.004416793355436</v>
       </c>
       <c r="E21">
-        <v>1.038093746291779</v>
+        <v>0.9982552708221805</v>
       </c>
       <c r="F21">
-        <v>1.04693515855489</v>
+        <v>1.003271688233509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034740964523495</v>
+        <v>1.041148152273602</v>
       </c>
       <c r="J21">
-        <v>1.035636351729404</v>
+        <v>1.010558891075124</v>
       </c>
       <c r="K21">
-        <v>1.037176788682553</v>
+        <v>1.019314968611375</v>
       </c>
       <c r="L21">
-        <v>1.041666109712067</v>
+        <v>1.013269773195488</v>
       </c>
       <c r="M21">
-        <v>1.050475070143973</v>
+        <v>1.018191341451369</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02828086310856</v>
+        <v>0.9762549924944535</v>
       </c>
       <c r="D22">
-        <v>1.033044635356048</v>
+        <v>1.001460628689747</v>
       </c>
       <c r="E22">
-        <v>1.037451983485711</v>
+        <v>0.9949627593786232</v>
       </c>
       <c r="F22">
-        <v>1.046219154330536</v>
+        <v>0.9996026276023319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034577503887695</v>
+        <v>1.039859572680922</v>
       </c>
       <c r="J22">
-        <v>1.03516885702379</v>
+        <v>1.0080739503639</v>
       </c>
       <c r="K22">
-        <v>1.036765212311534</v>
+        <v>1.017003205666969</v>
       </c>
       <c r="L22">
-        <v>1.041155499466112</v>
+        <v>1.010634669839233</v>
       </c>
       <c r="M22">
-        <v>1.049889206073509</v>
+        <v>1.015181960629795</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028661944043647</v>
+        <v>0.9783613836712666</v>
       </c>
       <c r="D23">
-        <v>1.033332524762199</v>
+        <v>1.003034828373602</v>
       </c>
       <c r="E23">
-        <v>1.037792141452256</v>
+        <v>0.9967155405093869</v>
       </c>
       <c r="F23">
-        <v>1.046598667066876</v>
+        <v>1.001555988942878</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034664334485835</v>
+        <v>1.040547178216906</v>
       </c>
       <c r="J23">
-        <v>1.035416726956573</v>
+        <v>1.009397621833239</v>
       </c>
       <c r="K23">
-        <v>1.036983491359284</v>
+        <v>1.01823497982341</v>
       </c>
       <c r="L23">
-        <v>1.04142619507201</v>
+        <v>1.012038017790214</v>
       </c>
       <c r="M23">
-        <v>1.050199790711672</v>
+        <v>1.01678458586527</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030162560392775</v>
+        <v>0.9864412005636509</v>
       </c>
       <c r="D24">
-        <v>1.034465307893755</v>
+        <v>1.009079173018268</v>
       </c>
       <c r="E24">
-        <v>1.039132474953913</v>
+        <v>1.003457260081759</v>
       </c>
       <c r="F24">
-        <v>1.048093981634902</v>
+        <v>1.009066604327476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035002250353314</v>
+        <v>1.0431562797629</v>
       </c>
       <c r="J24">
-        <v>1.036391630501002</v>
+        <v>1.014471364051498</v>
       </c>
       <c r="K24">
-        <v>1.037840733635334</v>
+        <v>1.022948702365433</v>
       </c>
       <c r="L24">
-        <v>1.042491641378225</v>
+        <v>1.017423933165868</v>
       </c>
       <c r="M24">
-        <v>1.051422374710288</v>
+        <v>1.022936349294688</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03190463243242</v>
+        <v>0.99541290013525</v>
       </c>
       <c r="D25">
-        <v>1.035778541144434</v>
+        <v>1.015799292006402</v>
       </c>
       <c r="E25">
-        <v>1.040690239645908</v>
+        <v>1.010977688825871</v>
       </c>
       <c r="F25">
-        <v>1.04983168889111</v>
+        <v>1.017439934384311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035386230317398</v>
+        <v>1.045992843731655</v>
       </c>
       <c r="J25">
-        <v>1.037520992019381</v>
+        <v>1.020095630803012</v>
       </c>
       <c r="K25">
-        <v>1.038831137868652</v>
+        <v>1.028157197037746</v>
       </c>
       <c r="L25">
-        <v>1.043727479190696</v>
+        <v>1.023407947394462</v>
       </c>
       <c r="M25">
-        <v>1.052840763820664</v>
+        <v>1.029773418544563</v>
       </c>
     </row>
   </sheetData>
